--- a/Database_backup/proposed_structures_iwm.xlsx
+++ b/Database_backup/proposed_structures_iwm.xlsx
@@ -586,13 +586,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
   </cols>

--- a/Database_backup/proposed_structures_iwm.xlsx
+++ b/Database_backup/proposed_structures_iwm.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Structure_location" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Structure_location!$B$1:$K$141</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -275,10 +278,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,16 +590,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="16.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.21875" style="2" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
   </cols>
@@ -630,7 +639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -640,13 +649,13 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>24.4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G2" t="s">
@@ -665,7 +674,7 @@
         <v>91.278175180845352</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -675,13 +684,13 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>25.11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G3" t="s">
@@ -700,7 +709,7 @@
         <v>91.273097901021288</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -710,13 +719,13 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>27.95</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G4" t="s">
@@ -735,7 +744,7 @@
         <v>91.250410402068951</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -745,13 +754,13 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>31.07</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G5" t="s">
@@ -770,7 +779,7 @@
         <v>91.232610767931973</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -780,13 +789,13 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>7.15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G6" t="s">
@@ -805,7 +814,7 @@
         <v>90.977811545977744</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -815,13 +824,13 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>16.100000000000001</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G7" t="s">
@@ -840,7 +849,7 @@
         <v>90.983851726008311</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -850,13 +859,13 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>19.5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G8" t="s">
@@ -875,7 +884,7 @@
         <v>90.960110114764987</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -885,13 +894,13 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>22.3</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G9" t="s">
@@ -910,7 +919,7 @@
         <v>90.97074786619244</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -920,13 +929,13 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>23.6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G10" t="s">
@@ -945,7 +954,7 @@
         <v>90.962498387525429</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -955,13 +964,13 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>24.4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G11" t="s">
@@ -980,7 +989,7 @@
         <v>90.964543095706716</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -990,13 +999,13 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>3.3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G12" t="s">
@@ -1015,7 +1024,7 @@
         <v>91.222695956626822</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1025,13 +1034,13 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G13" t="s">
@@ -1050,7 +1059,7 @@
         <v>90.928410102125611</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1060,13 +1069,13 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
         <v>14.05</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G14" t="s">
@@ -1085,7 +1094,7 @@
         <v>90.92814547756997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1095,13 +1104,13 @@
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>14.1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G15" t="s">
@@ -1120,7 +1129,7 @@
         <v>90.928118142866836</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1130,13 +1139,13 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
         <v>17.100000000000001</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G16" t="s">
@@ -1155,7 +1164,7 @@
         <v>90.938878243888809</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1165,13 +1174,13 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G17" t="s">
@@ -1190,7 +1199,7 @@
         <v>90.941678391088658</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1200,13 +1209,13 @@
       <c r="C18" t="s">
         <v>13</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
         <v>23.4</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G18" t="s">
@@ -1225,7 +1234,7 @@
         <v>90.944176191539498</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1235,13 +1244,13 @@
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
         <v>27</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G19" t="s">
@@ -1260,7 +1269,7 @@
         <v>90.951901096204381</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,13 +1279,13 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
         <v>33.299999999999997</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G20" t="s">
@@ -1295,7 +1304,7 @@
         <v>90.922467083105744</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1305,13 +1314,13 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>35.200000000000003</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G21" t="s">
@@ -1330,7 +1339,7 @@
         <v>90.916883030073024</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1340,13 +1349,13 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <v>12.09</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G22" t="s">
@@ -1365,7 +1374,7 @@
         <v>90.883177197477735</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1375,13 +1384,13 @@
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
         <v>2.74</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G23" t="s">
@@ -1400,7 +1409,7 @@
         <v>90.962318588108516</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1410,13 +1419,13 @@
       <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
         <v>5.73</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G24" t="s">
@@ -1435,7 +1444,7 @@
         <v>90.951319530313853</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1445,13 +1454,13 @@
       <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
         <v>12.25</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G25" t="s">
@@ -1470,7 +1479,7 @@
         <v>90.940710418140043</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1480,13 +1489,13 @@
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
         <v>0.02</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G26" t="s">
@@ -1505,7 +1514,7 @@
         <v>91.169294199893613</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1515,13 +1524,13 @@
       <c r="C27" t="s">
         <v>16</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
         <v>12.38</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G27" t="s">
@@ -1540,7 +1549,7 @@
         <v>91.133930234375413</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1550,13 +1559,13 @@
       <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
         <v>23.44</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G28" t="s">
@@ -1575,7 +1584,7 @@
         <v>91.122255228990753</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1585,13 +1594,13 @@
       <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
         <v>23.47</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G29" t="s">
@@ -1610,7 +1619,7 @@
         <v>91.122572246490748</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1620,13 +1629,13 @@
       <c r="C30" t="s">
         <v>16</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
         <v>24.23</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G30" t="s">
@@ -1645,7 +1654,7 @@
         <v>91.121894770830025</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1655,13 +1664,13 @@
       <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
         <v>24.98</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G31" t="s">
@@ -1680,7 +1689,7 @@
         <v>91.124320925849958</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1690,13 +1699,13 @@
       <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
         <v>5.94</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G32" t="s">
@@ -1715,7 +1724,7 @@
         <v>90.62319414032369</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1725,13 +1734,13 @@
       <c r="C33" t="s">
         <v>19</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
         <v>4.93</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G33" t="s">
@@ -1750,7 +1759,7 @@
         <v>91.364838213671845</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1760,13 +1769,13 @@
       <c r="C34" t="s">
         <v>19</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
         <v>12.64</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G34" t="s">
@@ -1785,7 +1794,7 @@
         <v>91.32866991510727</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1795,13 +1804,13 @@
       <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
         <v>14.72</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G35" t="s">
@@ -1820,7 +1829,7 @@
         <v>91.314373251163914</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1830,13 +1839,13 @@
       <c r="C36" t="s">
         <v>19</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
         <v>15.64</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G36" t="s">
@@ -1855,7 +1864,7 @@
         <v>91.312911904410754</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1865,13 +1874,13 @@
       <c r="C37" t="s">
         <v>19</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
         <v>16.329999999999998</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G37" t="s">
@@ -1890,7 +1899,7 @@
         <v>91.314424794898386</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1900,13 +1909,13 @@
       <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
         <v>18.559999999999999</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G38" t="s">
@@ -1925,7 +1934,7 @@
         <v>91.32637294909398</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1935,13 +1944,13 @@
       <c r="C39" t="s">
         <v>19</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
         <v>19.93</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G39" t="s">
@@ -1960,7 +1969,7 @@
         <v>91.32831108252401</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1970,13 +1979,13 @@
       <c r="C40" t="s">
         <v>19</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
         <v>20.77</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G40" t="s">
@@ -1995,7 +2004,7 @@
         <v>91.322272679052915</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2005,13 +2014,13 @@
       <c r="C41" t="s">
         <v>19</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
         <v>24.16</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G41" t="s">
@@ -2030,7 +2039,7 @@
         <v>91.312774672485915</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2040,13 +2049,13 @@
       <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
         <v>25.72</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G42" t="s">
@@ -2065,7 +2074,7 @@
         <v>91.306766911878967</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2075,13 +2084,13 @@
       <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
         <v>26.45</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G43" t="s">
@@ -2100,7 +2109,7 @@
         <v>91.301483566698622</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2110,13 +2119,13 @@
       <c r="C44" t="s">
         <v>19</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
         <v>27.51</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G44" t="s">
@@ -2135,7 +2144,7 @@
         <v>91.296219241030499</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2145,13 +2154,13 @@
       <c r="C45" t="s">
         <v>19</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
         <v>28.2</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G45" t="s">
@@ -2170,7 +2179,7 @@
         <v>91.288967683849634</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2180,13 +2189,13 @@
       <c r="C46" t="s">
         <v>19</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
         <v>50.74</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G46" t="s">
@@ -2205,7 +2214,7 @@
         <v>91.37191951389164</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2215,13 +2224,13 @@
       <c r="C47" t="s">
         <v>19</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
         <v>53.78</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G47" t="s">
@@ -2240,7 +2249,7 @@
         <v>91.383139010269019</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2250,13 +2259,13 @@
       <c r="C48" t="s">
         <v>19</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
         <v>55.8</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G48" t="s">
@@ -2275,7 +2284,7 @@
         <v>91.388617457535219</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2285,13 +2294,13 @@
       <c r="C49" t="s">
         <v>20</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
         <v>1.75</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G49" t="s">
@@ -2310,7 +2319,7 @@
         <v>90.948824114606481</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2320,13 +2329,13 @@
       <c r="C50" t="s">
         <v>20</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
         <v>3.1</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G50" t="s">
@@ -2345,7 +2354,7 @@
         <v>90.950905508553788</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2355,13 +2364,13 @@
       <c r="C51" t="s">
         <v>20</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
         <v>7.8</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G51" t="s">
@@ -2380,7 +2389,7 @@
         <v>90.981422971984429</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2390,13 +2399,13 @@
       <c r="C52" t="s">
         <v>20</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
         <v>12.56</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G52" t="s">
@@ -2415,7 +2424,7 @@
         <v>91.009737909694508</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2425,13 +2434,13 @@
       <c r="C53" t="s">
         <v>20</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
         <v>22.27</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G53" t="s">
@@ -2450,7 +2459,7 @@
         <v>91.064071938757763</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2460,13 +2469,13 @@
       <c r="C54" t="s">
         <v>20</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
         <v>22.27</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G54" t="s">
@@ -2485,7 +2494,7 @@
         <v>91.063943520997114</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2495,13 +2504,13 @@
       <c r="C55" t="s">
         <v>20</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
         <v>26.98</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G55" t="s">
@@ -2520,7 +2529,7 @@
         <v>91.067789178901393</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2530,13 +2539,13 @@
       <c r="C56" t="s">
         <v>20</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
         <v>27.77</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G56" t="s">
@@ -2555,7 +2564,7 @@
         <v>91.071612184068869</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2565,13 +2574,13 @@
       <c r="C57" t="s">
         <v>20</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
         <v>33.08</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G57" t="s">
@@ -2590,7 +2599,7 @@
         <v>91.06566707039994</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2600,13 +2609,13 @@
       <c r="C58" t="s">
         <v>20</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
         <v>34.28</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G58" t="s">
@@ -2625,7 +2634,7 @@
         <v>91.057723421640958</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2635,13 +2644,13 @@
       <c r="C59" t="s">
         <v>20</v>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
         <v>38.74</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G59" t="s">
@@ -2660,7 +2669,7 @@
         <v>91.032156982394071</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2670,13 +2679,13 @@
       <c r="C60" t="s">
         <v>20</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
         <v>40.659999999999997</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G60" t="s">
@@ -2695,7 +2704,7 @@
         <v>91.021706290813384</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2705,13 +2714,13 @@
       <c r="C61" t="s">
         <v>20</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
         <v>43.13</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G61" t="s">
@@ -2730,7 +2739,7 @@
         <v>91.005537011516964</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2740,13 +2749,13 @@
       <c r="C62" t="s">
         <v>20</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
         <v>47.31</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G62" t="s">
@@ -2765,7 +2774,7 @@
         <v>90.992822205436994</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2775,13 +2784,13 @@
       <c r="C63" t="s">
         <v>20</v>
       </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
         <v>48.05</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G63" t="s">
@@ -2800,7 +2809,7 @@
         <v>90.987311359293059</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2810,13 +2819,13 @@
       <c r="C64" t="s">
         <v>20</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
         <v>54.42</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G64" t="s">
@@ -2835,7 +2844,7 @@
         <v>90.948019284419843</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2845,13 +2854,13 @@
       <c r="C65" t="s">
         <v>21</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
         <v>7.61</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G65" t="s">
@@ -2870,7 +2879,7 @@
         <v>90.912563360029338</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2880,13 +2889,13 @@
       <c r="C66" t="s">
         <v>21</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
         <v>15.16</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G66" t="s">
@@ -2905,7 +2914,7 @@
         <v>90.945940299235104</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2915,13 +2924,13 @@
       <c r="C67" t="s">
         <v>21</v>
       </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
         <v>18.02</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G67" t="s">
@@ -2940,7 +2949,7 @@
         <v>90.884544777451481</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2950,13 +2959,13 @@
       <c r="C68" t="s">
         <v>21</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
         <v>24.58</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G68" t="s">
@@ -2975,7 +2984,7 @@
         <v>90.884667393846016</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2985,13 +2994,13 @@
       <c r="C69" t="s">
         <v>21</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
         <v>27.27</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G69" t="s">
@@ -3010,7 +3019,7 @@
         <v>90.891822410930871</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3020,13 +3029,13 @@
       <c r="C70" t="s">
         <v>21</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
         <v>29.67</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G70" t="s">
@@ -3045,7 +3054,7 @@
         <v>90.884667393846016</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3055,13 +3064,13 @@
       <c r="C71" t="s">
         <v>22</v>
       </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
         <v>24.14</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G71" t="s">
@@ -3080,7 +3089,7 @@
         <v>91.445993466695896</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3090,13 +3099,13 @@
       <c r="C72" t="s">
         <v>22</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
         <v>31.69</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G72" t="s">
@@ -3115,7 +3124,7 @@
         <v>90.900654453410752</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3125,13 +3134,13 @@
       <c r="C73" t="s">
         <v>23</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
         <v>0.1</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G73" t="s">
@@ -3150,7 +3159,7 @@
         <v>91.572938493375517</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3160,13 +3169,13 @@
       <c r="C74" t="s">
         <v>23</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
         <v>1.54</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G74" t="s">
@@ -3185,7 +3194,7 @@
         <v>91.58404025907079</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3195,13 +3204,13 @@
       <c r="C75" t="s">
         <v>23</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G75" t="s">
@@ -3220,7 +3229,7 @@
         <v>91.5889593258037</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3230,13 +3239,13 @@
       <c r="C76" t="s">
         <v>23</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
         <v>3.45</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G76" t="s">
@@ -3255,7 +3264,7 @@
         <v>91.601577362519137</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3265,13 +3274,13 @@
       <c r="C77" t="s">
         <v>23</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
         <v>3.46</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G77" t="s">
@@ -3290,7 +3299,7 @@
         <v>91.600692955065881</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3300,13 +3309,13 @@
       <c r="C78" t="s">
         <v>23</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
         <v>3.56</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G78" t="s">
@@ -3325,7 +3334,7 @@
         <v>91.602857832869276</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3335,13 +3344,13 @@
       <c r="C79" t="s">
         <v>23</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
         <v>4.7300000000000004</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G79" t="s">
@@ -3360,7 +3369,7 @@
         <v>91.613833081269178</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3370,13 +3379,13 @@
       <c r="C80" t="s">
         <v>23</v>
       </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
         <v>6.33</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G80" t="s">
@@ -3395,7 +3404,7 @@
         <v>91.624997531402656</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3405,13 +3414,13 @@
       <c r="C81" t="s">
         <v>23</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
         <v>6.63</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G81" t="s">
@@ -3430,7 +3439,7 @@
         <v>91.627406709695876</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3440,13 +3449,13 @@
       <c r="C82" t="s">
         <v>24</v>
       </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
         <v>4.4800000000000004</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G82" t="s">
@@ -3465,7 +3474,7 @@
         <v>91.104269089273174</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3475,13 +3484,13 @@
       <c r="C83" t="s">
         <v>24</v>
       </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
         <v>53.14</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G83" t="s">
@@ -3500,7 +3509,7 @@
         <v>91.155370268865923</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3510,13 +3519,13 @@
       <c r="C84" t="s">
         <v>25</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
         <v>33.69</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G84" t="s">
@@ -3535,7 +3544,7 @@
         <v>91.439421085895816</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3545,13 +3554,13 @@
       <c r="C85" t="s">
         <v>25</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
         <v>35.97</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G85" t="s">
@@ -3570,7 +3579,7 @@
         <v>91.42225872609265</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3580,13 +3589,13 @@
       <c r="C86" t="s">
         <v>25</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
         <v>42.78</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G86" t="s">
@@ -3605,7 +3614,7 @@
         <v>91.396862305749437</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3615,13 +3624,13 @@
       <c r="C87" t="s">
         <v>25</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
         <v>46.9</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G87" t="s">
@@ -3640,7 +3649,7 @@
         <v>91.41134245139304</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3650,13 +3659,13 @@
       <c r="C88" t="s">
         <v>25</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
         <v>50.01</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G88" t="s">
@@ -3675,7 +3684,7 @@
         <v>91.396619556934183</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3685,13 +3694,13 @@
       <c r="C89" t="s">
         <v>25</v>
       </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
         <v>51.58</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G89" t="s">
@@ -3710,7 +3719,7 @@
         <v>91.388221797259149</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3720,13 +3729,13 @@
       <c r="C90" t="s">
         <v>25</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
         <v>60.35</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G90" t="s">
@@ -3745,7 +3754,7 @@
         <v>91.374017242115215</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3755,13 +3764,13 @@
       <c r="C91" t="s">
         <v>25</v>
       </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
         <v>63.24</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G91" t="s">
@@ -3780,7 +3789,7 @@
         <v>91.37710524170339</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3790,13 +3799,13 @@
       <c r="C92" t="s">
         <v>25</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
         <v>65.45</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G92" t="s">
@@ -3815,7 +3824,7 @@
         <v>91.39694477247258</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3825,13 +3834,13 @@
       <c r="C93" t="s">
         <v>25</v>
       </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
         <v>69.7</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G93" t="s">
@@ -3850,7 +3859,7 @@
         <v>91.419448560973507</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3860,13 +3869,13 @@
       <c r="C94" t="s">
         <v>25</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
         <v>70.5</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G94" t="s">
@@ -3885,7 +3894,7 @@
         <v>91.424526939040234</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3895,13 +3904,13 @@
       <c r="C95" t="s">
         <v>25</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
         <v>70.599999999999994</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G95" t="s">
@@ -3920,7 +3929,7 @@
         <v>91.422813676353485</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3930,13 +3939,13 @@
       <c r="C96" t="s">
         <v>25</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
         <v>72.680000000000007</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G96" t="s">
@@ -3955,7 +3964,7 @@
         <v>91.410272618712085</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3965,13 +3974,13 @@
       <c r="C97" t="s">
         <v>25</v>
       </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
         <v>76.38</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G97" t="s">
@@ -3990,7 +3999,7 @@
         <v>91.38365946596349</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4000,13 +4009,13 @@
       <c r="C98" t="s">
         <v>25</v>
       </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2">
         <v>77.61</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G98" t="s">
@@ -4025,7 +4034,7 @@
         <v>91.387917749084934</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4035,13 +4044,13 @@
       <c r="C99" t="s">
         <v>25</v>
       </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2">
         <v>79.239999999999995</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G99" t="s">
@@ -4060,7 +4069,7 @@
         <v>91.396911949417529</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4070,13 +4079,13 @@
       <c r="C100" t="s">
         <v>25</v>
       </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2">
         <v>79.75</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G100" t="s">
@@ -4095,7 +4104,7 @@
         <v>91.399162818950231</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4105,13 +4114,13 @@
       <c r="C101" t="s">
         <v>25</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
         <v>81.03</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G101" t="s">
@@ -4130,7 +4139,7 @@
         <v>91.405373660246354</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4140,13 +4149,13 @@
       <c r="C102" t="s">
         <v>25</v>
       </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
         <v>81.2</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G102" t="s">
@@ -4165,7 +4174,7 @@
         <v>91.406470835369518</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4175,13 +4184,13 @@
       <c r="C103" t="s">
         <v>25</v>
       </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G103" t="s">
@@ -4210,13 +4219,13 @@
       <c r="C104" t="s">
         <v>26</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="2">
         <v>2.09</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G104" t="s">
@@ -4245,13 +4254,13 @@
       <c r="C105" t="s">
         <v>26</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="2">
         <v>4.07</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G105" t="s">
@@ -4280,13 +4289,13 @@
       <c r="C106" t="s">
         <v>26</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="2">
         <v>6.04</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G106" t="s">
@@ -4315,13 +4324,13 @@
       <c r="C107" t="s">
         <v>26</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2">
         <v>5.1100000000000003</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G107" t="s">
@@ -4350,13 +4359,13 @@
       <c r="C108" t="s">
         <v>26</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
         <v>6.65</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G108" t="s">
@@ -4385,13 +4394,13 @@
       <c r="C109" t="s">
         <v>26</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <v>9.39</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G109" t="s">
@@ -4420,13 +4429,13 @@
       <c r="C110" t="s">
         <v>26</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2">
         <v>11.21</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G110" t="s">
@@ -4455,13 +4464,13 @@
       <c r="C111" t="s">
         <v>26</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2">
         <v>13.7</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G111" t="s">
@@ -4490,13 +4499,13 @@
       <c r="C112" t="s">
         <v>26</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
         <v>14.52</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G112" t="s">
@@ -4525,13 +4534,13 @@
       <c r="C113" t="s">
         <v>26</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="2">
         <v>18.239999999999998</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G113" t="s">
@@ -4560,13 +4569,13 @@
       <c r="C114" t="s">
         <v>26</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="2">
         <v>24.06</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G114" t="s">
@@ -4595,13 +4604,13 @@
       <c r="C115" t="s">
         <v>26</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G115" t="s">
@@ -4620,7 +4629,7 @@
         <v>90.981523380876212</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4630,13 +4639,13 @@
       <c r="C116" t="s">
         <v>27</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G116" t="s">
@@ -4665,13 +4674,13 @@
       <c r="C117" t="s">
         <v>26</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="2">
         <v>39.07</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G117" t="s">
@@ -4700,13 +4709,13 @@
       <c r="C118" t="s">
         <v>26</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2">
         <v>44.2</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G118" t="s">
@@ -4735,13 +4744,13 @@
       <c r="C119" t="s">
         <v>26</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="2">
         <v>44.2</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G119" t="s">
@@ -4760,7 +4769,7 @@
         <v>91.002125311655689</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4770,13 +4779,13 @@
       <c r="C120" t="s">
         <v>28</v>
       </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
+      <c r="D120" s="2">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2">
         <v>1.64</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G120" t="s">
@@ -4795,7 +4804,7 @@
         <v>90.962589104637999</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4805,13 +4814,13 @@
       <c r="C121" t="s">
         <v>28</v>
       </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
+      <c r="D121" s="2">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
         <v>4.7699999999999996</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G121" t="s">
@@ -4830,7 +4839,7 @@
         <v>90.987198524647354</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4840,13 +4849,13 @@
       <c r="C122" t="s">
         <v>28</v>
       </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
+      <c r="D122" s="2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2">
         <v>10.48</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G122" t="s">
@@ -4865,7 +4874,7 @@
         <v>90.986559837039366</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4875,13 +4884,13 @@
       <c r="C123" t="s">
         <v>28</v>
       </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2">
         <v>11.17</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G123" t="s">
@@ -4900,7 +4909,7 @@
         <v>90.98443908768057</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4910,13 +4919,13 @@
       <c r="C124" t="s">
         <v>28</v>
       </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
         <v>12.34</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G124" t="s">
@@ -4935,7 +4944,7 @@
         <v>90.988998523695358</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4945,13 +4954,13 @@
       <c r="C125" t="s">
         <v>28</v>
       </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2">
         <v>16.13</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G125" t="s">
@@ -4970,7 +4979,7 @@
         <v>90.974431007454427</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4980,13 +4989,13 @@
       <c r="C126" t="s">
         <v>28</v>
       </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
+      <c r="D126" s="2">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2">
         <v>19.7</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G126" t="s">
@@ -5005,7 +5014,7 @@
         <v>90.957200627703415</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5015,13 +5024,13 @@
       <c r="C127" t="s">
         <v>28</v>
       </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
+      <c r="D127" s="2">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2">
         <v>22.64</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G127" t="s">
@@ -5040,7 +5049,7 @@
         <v>90.948138365397099</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5050,13 +5059,13 @@
       <c r="C128" t="s">
         <v>28</v>
       </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
+      <c r="D128" s="2">
+        <v>0</v>
+      </c>
+      <c r="E128" s="2">
         <v>23.38</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G128" t="s">
@@ -5075,7 +5084,7 @@
         <v>90.947244005924205</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5085,13 +5094,13 @@
       <c r="C129" t="s">
         <v>29</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="2">
         <v>9.4600000000000009</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G129" t="s">
@@ -5110,7 +5119,7 @@
         <v>90.950695640376566</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5120,13 +5129,13 @@
       <c r="C130" t="s">
         <v>29</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="2">
         <v>12.18</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G130" t="s">
@@ -5145,7 +5154,7 @@
         <v>90.962598886553891</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5155,13 +5164,13 @@
       <c r="C131" t="s">
         <v>29</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="2">
         <v>23.85</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G131" t="s">
@@ -5180,7 +5189,7 @@
         <v>90.900654453410752</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5190,13 +5199,13 @@
       <c r="C132" t="s">
         <v>29</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="2">
         <v>2.33</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G132" t="s">
@@ -5215,7 +5224,7 @@
         <v>90.921390513358929</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5225,13 +5234,13 @@
       <c r="C133" t="s">
         <v>29</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="2">
         <v>2.62</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G133" t="s">
@@ -5250,7 +5259,7 @@
         <v>90.920933182645044</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5260,13 +5269,13 @@
       <c r="C134" t="s">
         <v>29</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="2">
         <v>6.15</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G134" t="s">
@@ -5285,7 +5294,7 @@
         <v>90.922334418384409</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5295,13 +5304,13 @@
       <c r="C135" t="s">
         <v>29</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="2">
         <v>0.78</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G135" t="s">
@@ -5320,7 +5329,7 @@
         <v>90.971327578706322</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5330,13 +5339,13 @@
       <c r="C136" t="s">
         <v>30</v>
       </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2">
         <v>5.13</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G136" t="s">
@@ -5355,7 +5364,7 @@
         <v>90.892908676165447</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5365,13 +5374,13 @@
       <c r="C137" t="s">
         <v>30</v>
       </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="2">
         <v>8.24</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G137" t="s">
@@ -5390,7 +5399,7 @@
         <v>90.916728901933581</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5400,13 +5409,13 @@
       <c r="C138" t="s">
         <v>30</v>
       </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
+      <c r="D138" s="2">
+        <v>0</v>
+      </c>
+      <c r="E138" s="2">
         <v>16.170000000000002</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G138" t="s">
@@ -5425,7 +5434,7 @@
         <v>90.895727938483773</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5435,13 +5444,13 @@
       <c r="C139" t="s">
         <v>30</v>
       </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
+      <c r="D139" s="2">
+        <v>0</v>
+      </c>
+      <c r="E139" s="2">
         <v>17.71</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G139" t="s">
@@ -5460,7 +5469,7 @@
         <v>90.883777934516459</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5470,13 +5479,13 @@
       <c r="C140" t="s">
         <v>30</v>
       </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
+      <c r="D140" s="2">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2">
         <v>17.739999999999998</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G140" t="s">
@@ -5495,7 +5504,7 @@
         <v>90.883446581258767</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5505,13 +5514,13 @@
       <c r="C141" t="s">
         <v>30</v>
       </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="D141" s="2">
+        <v>0</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G141" t="s">
@@ -5531,6 +5540,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:K141">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Naogaon"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>